--- a/biology/Médecine/Pandémie_de_Covid-19_en_Croatie/Pandémie_de_Covid-19_en_Croatie.xlsx
+++ b/biology/Médecine/Pandémie_de_Covid-19_en_Croatie/Pandémie_de_Covid-19_en_Croatie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Croatie</t>
+          <t>Pandémie_de_Covid-19_en_Croatie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 en Croatie démarre officiellement le 25 février 2020. À la date du 5 novembre 2022, le bilan est de 17 176 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Croatie</t>
+          <t>Pandémie_de_Covid-19_en_Croatie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 28 janvier 2020, la présidence croate du Conseil de l'Union européenne en 2020 active le dispositif intégré de l'Union européenne (UE) pour une réaction au niveau politique dans les situations de crise (IPCR) en mode "partage de l'information". L'IPCR est le dispositif de l'UE qui permet d'assurer une coordination au plus haut niveau politique en cas de crises[2].
-Le 31 janvier, Vili Beroš est confirmé comme nouveau ministre de la Santé par le  Parlement de la République de Croatie après avoir relevé Milan Kujundžić de son poste[3].
-Le coronavirus est confirmé pour la première fois en Croatie le 25 février 2020 chez un homme soigné à l'hôpital de Zagreb, qui a séjourné à Milan du 19 au 21 février pour assister au match de Ligue des champions de l'UEFA entre Atalanta Bergame et Valence Club de Fútbol[4]. 
-À partir du 9 mars 2020, les autorités croates renforcent les contrôles aux frontières concernant les voyageurs qui arrivent de pays touchés par la maladie à coronavirus 2019 (Covid-19) et dès le 19 mars, il n’est plus possible aux Français ou aux Européens non Croates d’entrer sur le territoire croate, sauf en cas de transit dans le cadre d’un retour en France[5].
-Le dimanche 22 mars 2020 la Croatie est frappée par un séisme le plus fort ressenti en 140 ans[6].
-En Croatie, 2 725 cas confirmés ont été dénombrés au 29 juin 2020 et 107 décès sont dus au coronavirus[7].
-En novembre, six organisations professionnelles de médecins croates soulignent dans une lettre que le système de santé est proche de l’effondrement, pointant la pénurie de personnels et d'équipements[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 28 janvier 2020, la présidence croate du Conseil de l'Union européenne en 2020 active le dispositif intégré de l'Union européenne (UE) pour une réaction au niveau politique dans les situations de crise (IPCR) en mode "partage de l'information". L'IPCR est le dispositif de l'UE qui permet d'assurer une coordination au plus haut niveau politique en cas de crises.
+Le 31 janvier, Vili Beroš est confirmé comme nouveau ministre de la Santé par le  Parlement de la République de Croatie après avoir relevé Milan Kujundžić de son poste.
+Le coronavirus est confirmé pour la première fois en Croatie le 25 février 2020 chez un homme soigné à l'hôpital de Zagreb, qui a séjourné à Milan du 19 au 21 février pour assister au match de Ligue des champions de l'UEFA entre Atalanta Bergame et Valence Club de Fútbol. 
+À partir du 9 mars 2020, les autorités croates renforcent les contrôles aux frontières concernant les voyageurs qui arrivent de pays touchés par la maladie à coronavirus 2019 (Covid-19) et dès le 19 mars, il n’est plus possible aux Français ou aux Européens non Croates d’entrer sur le territoire croate, sauf en cas de transit dans le cadre d’un retour en France.
+Le dimanche 22 mars 2020 la Croatie est frappée par un séisme le plus fort ressenti en 140 ans.
+En Croatie, 2 725 cas confirmés ont été dénombrés au 29 juin 2020 et 107 décès sont dus au coronavirus.
+En novembre, six organisations professionnelles de médecins croates soulignent dans une lettre que le système de santé est proche de l’effondrement, pointant la pénurie de personnels et d'équipements.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Croatie</t>
+          <t>Pandémie_de_Covid-19_en_Croatie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
